--- a/spreadsheet-charts-integration/src/test/resources/test_sheets/StyleSample - Custom Font.xlsx
+++ b/spreadsheet-charts-integration/src/test/resources/test_sheets/StyleSample - Custom Font.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="5380" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="10180" yWindow="1800" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -107,9 +107,8 @@
             <a:pPr>
               <a:defRPr sz="1800" b="1" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Comic Sans MS" charset="0"/>
@@ -118,14 +117,32 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fi-FI" sz="1800" b="1" i="1"/>
+              <a:rPr lang="fi-FI" sz="1800" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Comic</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="fi-FI" sz="1800" b="1" i="1" baseline="0"/>
+              <a:rPr lang="fi-FI" sz="1800" b="1" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t> Sans MS Font</a:t>
             </a:r>
-            <a:endParaRPr lang="fi-FI" sz="1800" b="1" i="1"/>
+            <a:endParaRPr lang="fi-FI" sz="1800" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -145,9 +162,8 @@
           <a:pPr>
             <a:defRPr sz="1800" b="1" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Comic Sans MS" charset="0"/>
@@ -224,16 +240,77 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070902848"/>
-        <c:axId val="-2077455696"/>
+        <c:axId val="-1965487152"/>
+        <c:axId val="-1972534784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070902848"/>
+        <c:axId val="-1965487152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Constantia" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Constantia" charset="0"/>
+                  </a:rPr>
+                  <a:t>X-axis title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Constantia" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -271,7 +348,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077455696"/>
+        <c:crossAx val="-1972534784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -279,7 +356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077455696"/>
+        <c:axId val="-1972534784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -299,6 +376,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1750" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Gabriola" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1750" b="1" i="0" baseline="0">
+                    <a:latin typeface="Gabriola" charset="0"/>
+                  </a:rPr>
+                  <a:t>Y-axis title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1750" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Gabriola" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -330,7 +465,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070902848"/>
+        <c:crossAx val="-1965487152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -441,14 +576,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" charset="0"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>Arial</a:t>
+              <a:rPr lang="fi-FI">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Theme font (Calibri Light)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,7 +611,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Arial" charset="0"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -548,11 +685,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2110202944"/>
-        <c:axId val="-2091802576"/>
+        <c:axId val="-1965831856"/>
+        <c:axId val="-1965690672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110202944"/>
+        <c:axId val="-1965831856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,7 +732,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091802576"/>
+        <c:crossAx val="-1965690672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -603,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091802576"/>
+        <c:axId val="-1965690672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +791,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110202944"/>
+        <c:crossAx val="-1965831856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2156,7 +2293,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
